--- a/cleansing/tests/resources/master/job_list/Aシステム納品一覧.xlsx
+++ b/cleansing/tests/resources/master/job_list/Aシステム納品一覧.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\work\gradle\gradle-server-acceptance\cleansing\tests\resources\master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\work\gradle\gradle-server-acceptance\cleansing\tests\resources\master\job_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -33,13 +33,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>担当者</t>
-    <rPh sb="0" eb="3">
-      <t>タントウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>発番</t>
     <rPh sb="0" eb="2">
       <t>ハツバン</t>
@@ -98,6 +91,44 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>アンケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>営業</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鈴木様</t>
+    <rPh sb="0" eb="2">
+      <t>スズキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -181,10 +212,14 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -197,7 +232,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -261,6 +300,32 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -275,16 +340,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B3:E5" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="B3:E5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B3:G5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="B3:G5">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="4">
+  <tableColumns count="6">
     <tableColumn id="1" name="システム名" dataDxfId="5"/>
-    <tableColumn id="2" name="担当者" dataDxfId="4"/>
+    <tableColumn id="5" name="顧客" dataDxfId="1"/>
+    <tableColumn id="2" name="担当" dataDxfId="4"/>
+    <tableColumn id="6" name="営業" dataDxfId="0"/>
     <tableColumn id="3" name="発番" dataDxfId="3"/>
     <tableColumn id="4" name="納期" dataDxfId="2"/>
   </tableColumns>
@@ -555,60 +624,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="27.125" customWidth="1"/>
-    <col min="3" max="5" width="11.375" customWidth="1"/>
+    <col min="3" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>43282</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3">
-        <v>43282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="G5" s="3">
         <v>43282</v>
       </c>
     </row>
